--- a/preprocessor/benchmark_results/windows/omp_threads_only/sum/2021_06_05--07_30__windows__sum__runs_20__.xlsx
+++ b/preprocessor/benchmark_results/windows/omp_threads_only/sum/2021_06_05--07_30__windows__sum__runs_20__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb\PycharmProjects\OpenMPy\preprocessor\benchmark_results\windows\omp_threads_only\sum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebhuck/PycharmProjects/OpenMPy/preprocessor/benchmark_results/windows/omp_threads_only/sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9062BA69-41A6-4304-9792-D2BB3319892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708B8C0D-8EE8-874C-9960-BA4020636807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="37220" windowHeight="21820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37220" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_06_05--07_30__windows__sum" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5341,15 +5341,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5377,16 +5377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5414,15 +5414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
+      <xdr:colOff>669925</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5746,16 +5746,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:V18"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>500000</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>100500000</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>10.9917500376701</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>6.5846499919891297</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>4.6732999920845</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>3.47590001821517</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>3.77815001010894</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>500000</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>100500000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1.6692990593338499</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>2.3520317669072401</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>3.1622745130955199</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>2.9092942334899901</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>500000</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>100500000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0.83464952966692696</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>0.58800794172681103</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>0.39528431413693998</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
